--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H2">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I2">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J2">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>48.3322140650111</v>
+        <v>241.9099575187898</v>
       </c>
       <c r="R2">
-        <v>434.9899265851</v>
+        <v>2177.189617669108</v>
       </c>
       <c r="S2">
-        <v>0.04656121545340867</v>
+        <v>0.09579248283412437</v>
       </c>
       <c r="T2">
-        <v>0.04656121545340869</v>
+        <v>0.09579248283412437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H3">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I3">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J3">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>53.13955306365555</v>
+        <v>280.2616348646552</v>
       </c>
       <c r="R3">
-        <v>478.2559775729001</v>
+        <v>2522.354713781896</v>
       </c>
       <c r="S3">
-        <v>0.05119240297923524</v>
+        <v>0.1109791350558641</v>
       </c>
       <c r="T3">
-        <v>0.05119240297923524</v>
+        <v>0.1109791350558641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H4">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I4">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J4">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>29.45430914934166</v>
+        <v>212.7305025335965</v>
       </c>
       <c r="R4">
-        <v>265.088782344075</v>
+        <v>1914.574522802368</v>
       </c>
       <c r="S4">
-        <v>0.0283750384885971</v>
+        <v>0.08423788429900153</v>
       </c>
       <c r="T4">
-        <v>0.0283750384885971</v>
+        <v>0.08423788429900153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3148083333333333</v>
+        <v>1.660320666666667</v>
       </c>
       <c r="H5">
-        <v>0.944425</v>
+        <v>4.980962</v>
       </c>
       <c r="I5">
-        <v>0.1467786178868106</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="J5">
-        <v>0.1467786178868107</v>
+        <v>0.3342448133445559</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>21.43540120469445</v>
+        <v>109.1844785259993</v>
       </c>
       <c r="R5">
-        <v>192.91861084225</v>
+        <v>982.6603067339939</v>
       </c>
       <c r="S5">
-        <v>0.02064996096556962</v>
+        <v>0.04323531115556593</v>
       </c>
       <c r="T5">
-        <v>0.02064996096556962</v>
+        <v>0.04323531115556593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.318244</v>
       </c>
       <c r="I6">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J6">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>16.28656286407644</v>
+        <v>15.45612926189956</v>
       </c>
       <c r="R6">
-        <v>146.579065776688</v>
+        <v>139.105163357096</v>
       </c>
       <c r="S6">
-        <v>0.0156897873846569</v>
+        <v>0.006120380542365728</v>
       </c>
       <c r="T6">
-        <v>0.0156897873846569</v>
+        <v>0.006120380542365728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.318244</v>
       </c>
       <c r="I7">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J7">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
-        <v>17.90649752515022</v>
+        <v>17.90649752515023</v>
       </c>
       <c r="R7">
         <v>161.158477726352</v>
       </c>
       <c r="S7">
-        <v>0.01725036407732084</v>
+        <v>0.007090687272201315</v>
       </c>
       <c r="T7">
-        <v>0.01725036407732084</v>
+        <v>0.007090687272201315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.318244</v>
       </c>
       <c r="I8">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J8">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>9.925253102070666</v>
+        <v>13.59179332191289</v>
       </c>
       <c r="R8">
-        <v>89.32727791863599</v>
+        <v>122.326139897216</v>
       </c>
       <c r="S8">
-        <v>0.00956157000160425</v>
+        <v>0.005382133260774013</v>
       </c>
       <c r="T8">
-        <v>0.00956157000160425</v>
+        <v>0.005382133260774013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.318244</v>
       </c>
       <c r="I9">
-        <v>0.04946016303123081</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="J9">
-        <v>0.04946016303123082</v>
+        <v>0.02135559483851209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>7.223112286297778</v>
+        <v>6.976022941758667</v>
       </c>
       <c r="R9">
-        <v>65.00801057668001</v>
+        <v>62.784206475828</v>
       </c>
       <c r="S9">
-        <v>0.00695844156764882</v>
+        <v>0.002762393763171035</v>
       </c>
       <c r="T9">
-        <v>0.006958441567648821</v>
+        <v>0.002762393763171035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H10">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I10">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J10">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>187.897409037504</v>
+        <v>452.8392257307021</v>
       </c>
       <c r="R10">
-        <v>1691.076681337536</v>
+        <v>4075.553031576319</v>
       </c>
       <c r="S10">
-        <v>0.1810124347617236</v>
+        <v>0.1793171070854209</v>
       </c>
       <c r="T10">
-        <v>0.1810124347617236</v>
+        <v>0.1793171070854209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H11">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I11">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J11">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>206.586528906816</v>
+        <v>524.6309950853241</v>
       </c>
       <c r="R11">
-        <v>1859.278760161344</v>
+        <v>4721.678955767917</v>
       </c>
       <c r="S11">
-        <v>0.199016744179437</v>
+        <v>0.2077455021133514</v>
       </c>
       <c r="T11">
-        <v>0.199016744179437</v>
+        <v>0.2077455021133514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H12">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I12">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J12">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>114.507238727088</v>
+        <v>398.2172418393921</v>
       </c>
       <c r="R12">
-        <v>1030.565148543792</v>
+        <v>3583.955176554528</v>
       </c>
       <c r="S12">
-        <v>0.1103114416851539</v>
+        <v>0.157687673109485</v>
       </c>
       <c r="T12">
-        <v>0.1103114416851539</v>
+        <v>0.1576876731094849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.223856</v>
+        <v>3.108009</v>
       </c>
       <c r="H13">
-        <v>3.671568</v>
+        <v>9.324027000000001</v>
       </c>
       <c r="I13">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143543</v>
       </c>
       <c r="J13">
-        <v>0.5706198761335644</v>
+        <v>0.6256838868143542</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>83.33275075344</v>
+        <v>204.386025381711</v>
       </c>
       <c r="R13">
-        <v>749.9947567809601</v>
+        <v>1839.474228435399</v>
       </c>
       <c r="S13">
-        <v>0.08027925550724992</v>
+        <v>0.080933604506097</v>
       </c>
       <c r="T13">
-        <v>0.08027925550724992</v>
+        <v>0.08093360450609699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H14">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I14">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J14">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>76.77029159298623</v>
+        <v>13.54550683017067</v>
       </c>
       <c r="R14">
-        <v>690.932624336876</v>
+        <v>121.909561471536</v>
       </c>
       <c r="S14">
-        <v>0.07395725928205973</v>
+        <v>0.005363804548673253</v>
       </c>
       <c r="T14">
-        <v>0.07395725928205973</v>
+        <v>0.005363804548673253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H15">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I15">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J15">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>84.40620945546713</v>
+        <v>15.69297075751467</v>
       </c>
       <c r="R15">
-        <v>759.6558850992042</v>
+        <v>141.236736817632</v>
       </c>
       <c r="S15">
-        <v>0.081313380321772</v>
+        <v>0.006214165995167342</v>
       </c>
       <c r="T15">
-        <v>0.081313380321772</v>
+        <v>0.006214165995167342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H16">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I16">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J16">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>46.78486069401634</v>
+        <v>11.91163234705067</v>
       </c>
       <c r="R16">
-        <v>421.063746246147</v>
+        <v>107.204691123456</v>
       </c>
       <c r="S16">
-        <v>0.04507056051274041</v>
+        <v>0.004716816326349955</v>
       </c>
       <c r="T16">
-        <v>0.0450705605127404</v>
+        <v>0.004716816326349955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5000376666666667</v>
+        <v>0.09296800000000001</v>
       </c>
       <c r="H17">
-        <v>1.500113</v>
+        <v>0.278904</v>
       </c>
       <c r="I17">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="J17">
-        <v>0.2331413429483942</v>
+        <v>0.01871570500257782</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>34.0477264021789</v>
+        <v>6.113675992472</v>
       </c>
       <c r="R17">
-        <v>306.4295376196101</v>
+        <v>55.02308393224801</v>
       </c>
       <c r="S17">
-        <v>0.03280014283182205</v>
+        <v>0.00242091813238727</v>
       </c>
       <c r="T17">
-        <v>0.03280014283182205</v>
+        <v>0.00242091813238727</v>
       </c>
     </row>
   </sheetData>
